--- a/Countries list.xlsx
+++ b/Countries list.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,16 +31,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="004F4F4F"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00808080"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,15 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -454,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,616 +452,626 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Countries List</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Paises</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Capitais</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Moedas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Paises</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Capitais</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Moedas</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Afeganistão</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kabul</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AFN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Ilhas Aland</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kabul</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AFN</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Åland Islands</t>
+          <t>Albânia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Tirana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Argélia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Algiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>DZD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Samoa Americana</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algiers</t>
+          <t>Pago Pago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DZD</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pago Pago</t>
+          <t>Andorra la Vella</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andorra la Vella</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AOA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>The Valley</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AOA</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Antártica</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Valley</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Antarctica</t>
+          <t>Antígua e Barbuda</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Saint John's</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Saint John's</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>ARS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Armênia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>AMD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Oranjestad</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AWG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oranjestad</t>
+          <t>Canberra</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AWG</t>
+          <t>AUD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Áustria</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Azerbaijão</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Baku</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AZN</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Nassau</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>BSD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Bahrein</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nassau</t>
+          <t>Manama</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BSD</t>
+          <t>BHD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Dhaka</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BHD</t>
+          <t>BDT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dhaka</t>
+          <t>Bridgetown</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Bielorrússia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bridgetown</t>
+          <t>Minsk</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BBD</t>
+          <t>BYN,BYR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BYN,BYR</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Belmopan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>BZD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Belmopan</t>
+          <t>Porto-Novo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BZD</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bermudas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Porto-Novo</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>BMD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Butão</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Thimphu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BMD</t>
+          <t>BTN,INR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bolívia (estado plurinacional de)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Thimphu</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BTN,INR</t>
+          <t>BOB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolivia (Plurinational State of)</t>
+          <t>Bonaire, Sin Eustatius e Saba</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Kralendijk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bonaire, Sint Eustatius and Saba</t>
+          <t>Bósnia e Herzegovina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kralendijk</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>BAM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Gaborone</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>BWP</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Ilha Bouvet</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gaborone</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BWP</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bouvet Island</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Brasília</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>BRL</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Território do Oceano Índico Britânico</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Brasília</t>
+          <t>Diego Garcia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>British Indian Ocean Territory</t>
+          <t>Ilhas Menoras Estados Unidos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Diego Garcia</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>United States Minor Outlying Islands</t>
+          <t>Ilhas Virgens (britânicas)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Road Town</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Virgin Islands (British)</t>
+          <t>Ilhas Virgens (EUA)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Road Town</t>
+          <t>Charlotte Amalie</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1089,182 +1083,182 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Virgin Islands (U.S.)</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Charlotte Amalie</t>
+          <t>Bandar Seri Begawan</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>BND,SGD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bandar Seri Begawan</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BND,SGD</t>
+          <t>BGN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Ouagadougou</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BGN</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ouagadougou</t>
+          <t>Gitega</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>BIF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Camboja</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gitega</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BIF</t>
+          <t>KHR,USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Camarões</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Yaoundé</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KHR,USD</t>
+          <t>XAF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yaoundé</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Praia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>CVE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Ilhas Cayman</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Praia</t>
+          <t>George Town</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>KYD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>República da África Central</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>George Town</t>
+          <t>Bangui</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KYD</t>
+          <t>XAF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Chade</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bangui</t>
+          <t>N'Djamena</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1276,63 +1270,63 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>N'Djamena</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>CLP</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>CNY</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ilha do Natal</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Flying Fish Cove</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>AUD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Christmas Island</t>
+          <t>Ilhas Cocos (Keeling)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Flying Fish Cove</t>
+          <t>West Island</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1344,454 +1338,454 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cocos (Keeling) Islands</t>
+          <t>Colômbia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>West Island</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>COP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Comores</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Moroni</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>KMF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Moroni</t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KMF</t>
+          <t>XAF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Congo (República Democrática do)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Brazzaville</t>
+          <t>Kinshasa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>CDF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Congo (Democratic Republic of the)</t>
+          <t>Ilhas Cook</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kinshasa</t>
+          <t>Avarua</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CDF</t>
+          <t>NZD,CKD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Avarua</t>
+          <t>San José</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NZD,CKD</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Croácia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>HRK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Havana</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HRK</t>
+          <t>CUC,CUP</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Havana</t>
+          <t>Willemstad</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUC,CUP</t>
+          <t>ANG</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Chipre</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Nicosia</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ANG</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>República Checa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CZK</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Dinamarca</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Copenhagen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CZK</t>
+          <t>DKK</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Djibuti</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>DJF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Roseau</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DJF</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>República Dominicana</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Roseau</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>DOP</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>Quito</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DOP</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Egito</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>O salvador</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Guiné Equatorial</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Malabo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>XAF</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Eritreia</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Malabo</t>
+          <t>Asmara</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Estônia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Asmara</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Etiópia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Addis Ababa</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>ETB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Ilhas Falkland (Malvinas)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Addis Ababa</t>
+          <t>Stanley</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ETB</t>
+          <t>FKP</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Falkland Islands (Malvinas)</t>
+          <t>ilhas Faroe</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Stanley</t>
+          <t>Tórshavn</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FKP</t>
+          <t>DKK,FOK</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tórshavn</t>
+          <t>Suva</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DKK,FOK</t>
+          <t>FJD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Finlândia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Suva</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FJD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>França</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1803,12 +1797,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Guiana Francesa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Cayenne</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1820,879 +1814,879 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>French Guiana</t>
+          <t>Polinésia Francesa</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cayenne</t>
+          <t>Papeetē</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>XPF</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Territórios do Sul da França</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Papeetē</t>
+          <t>Port-aux-Français</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>French Southern Territories</t>
+          <t>Gabão</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Port-aux-Français</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>XAF</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Gâmbia</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Banjul</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>GMD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Geórgia</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Banjul</t>
+          <t>Tbilisi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>GEL</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Accra</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GHS</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Accra</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GHS</t>
+          <t>GIP</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Grécia</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GIP</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Groenlândia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Nuuk</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>DKK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nuuk</t>
+          <t>St. George's</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Basse-Terre</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Basse-Terre</t>
+          <t>Hagåtña</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hagåtña</t>
+          <t>Guatemala City</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GTQ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guernsey</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>St. Peter Port</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GTQ</t>
+          <t>GBP,GGP</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Guernsey</t>
+          <t>Guiné</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>St. Peter Port</t>
+          <t>Conakry</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GBP,GGP</t>
+          <t>GNF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Guiné-bissau</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Conakry</t>
+          <t>Bissau</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Guiana</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bissau</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>GYD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Port-au-Prince</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>HTG</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Ouviu a ilha e as ilhas McDonald</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Port-au-Prince</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>AUD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Heard Island and McDonald Islands</t>
+          <t>Cidade do Vaticano</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vatican City</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Vatican City</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Vatican City</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>HNL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Hungria</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>HUF</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>City of Victoria</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HUF</t>
+          <t>HKD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Islândia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>City of Victoria</t>
+          <t>Reykjavík</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HKD</t>
+          <t>ISK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ISK</t>
+          <t>INR</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Jakarta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>INR</t>
+          <t>IDR</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Costa do Marfim</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jakarta</t>
+          <t>Yamoussoukro</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>IDR</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Irã (Republic Islâmica do Irã)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Yamoussoukro</t>
+          <t>Tehran</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>IRR</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Iraque</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tehran</t>
+          <t>Baghdad</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>IRR</t>
+          <t>IQD</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Irlanda</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>IQD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Ilha de Homem</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP,IMP[G]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Isle of Man</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GBP,IMP[G]</t>
+          <t>ILS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ILS</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>JMD</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>JMD</t>
+          <t>JPY</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Saint Helier</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>GBP,JEP[G]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Jordânia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Saint Helier</t>
+          <t>Amman</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GBP,JEP[G]</t>
+          <t>JOD</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Cazaquistão</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Nur-Sultan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JOD</t>
+          <t>KZT</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Quênia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nur-Sultan</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>KZT</t>
+          <t>KES</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>South Tarawa</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>KES</t>
+          <t>AUD,KID</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>South Tarawa</t>
+          <t>Kuwait City</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AUD,KID</t>
+          <t>KWD</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Quirguistão</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Bishkek</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KWD</t>
+          <t>KGS</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>República Democrática Popular do Lao</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bishkek</t>
+          <t>Vientiane</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KGS</t>
+          <t>LAK</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Letônia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Vientiane</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LAK</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Líbano</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>LBP</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Lesoto</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Maseru</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LBP</t>
+          <t>LSL,ZAR</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Libéria</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Maseru</t>
+          <t>Monrovia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LSL,ZAR</t>
+          <t>LRD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Monrovia</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LRD</t>
+          <t>LYD</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LYD</t>
+          <t>CHF</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lituânia</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CHF</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxemburgo</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2704,896 +2698,896 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MOP</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Macedônia do Norte</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MOP</t>
+          <t>MKD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Madagáscar</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MGA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>Lilongwe</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>MWK</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Malásia</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lilongwe</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MWK</t>
+          <t>MYR</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Maldivas</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Malé</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MYR</t>
+          <t>MVR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Malé</t>
+          <t>Bamako</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MVR</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bamako</t>
+          <t>Valletta</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Ilhas Marshall</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Valletta</t>
+          <t>Majuro</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Martinica</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Majuro</t>
+          <t>Fort-de-France</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Mauritânia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fort-de-France</t>
+          <t>Nouakchott</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MRO</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nouakchott</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MRO</t>
+          <t>MUR</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Mamoudzou</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mamoudzou</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MXN</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Micronésia (estados federados de)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Palikir</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MXN</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Micronesia (Federated States of)</t>
+          <t>Moldávia (República de)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Palikir</t>
+          <t>Chișinău</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>MDL</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Moldova (Republic of)</t>
+          <t>Mônaco</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Mongólia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ulan Bator</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MNT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ulan Bator</t>
+          <t>Podgorica</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montserrat</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Podgorica</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Marrocos</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rabat</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>MAD</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Moçambique</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rabat</t>
+          <t>Maputo</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MZN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mianmar</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Maputo</t>
+          <t>Naypyidaw</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MZN</t>
+          <t>MMK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Namíbia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Naypyidaw</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MMK</t>
+          <t>NAD,ZAR</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Yaren</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NAD,ZAR</t>
+          <t>AUD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Yaren</t>
+          <t>Kathmandu</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>NPR</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Kathmandu</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NPR</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nova Caledônia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Nouméa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>XPF</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Nova Zelândia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nouméa</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>NZD</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nicarágua</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>NIO</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Níger</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nigéria</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Abuja</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>NGN</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niue</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Abuja</t>
+          <t>Alofi</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NGN</t>
+          <t>NZD,NZD</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Niue</t>
+          <t>Ilha de Norfolk</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Alofi</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NZD,NZD</t>
+          <t>AUD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Norfolk Island</t>
+          <t>Coréia, República Popular Democrática da)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Pyongyang</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>KPW</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Korea (Democratic People's Republic of)</t>
+          <t>Ilhas do norte da Mariana</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pyongyang</t>
+          <t>Saipan</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KPW</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Northern Mariana Islands</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Saipan</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Omã</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Muscat</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OMR</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Paquistão</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>OMR</t>
+          <t>PKR</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Ngerulmud</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PKR</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Palestina, estado de</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ngerulmud</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EGP,ILS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Palestine, State of</t>
+          <t>Panamá</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Panama City</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EGP,ILS</t>
+          <t>PAB,USD</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Papua Nova Guiné</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>PAB,USD</t>
+          <t>PGK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Paraguai</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Asunción</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PGK</t>
+          <t>PYG</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PYG</t>
+          <t>PEN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>PHP</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Pitcairn</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Adamstown</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>NZD,PND</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Pitcairn</t>
+          <t>Polônia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Adamstown</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NZD,PND</t>
+          <t>PLN</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Porto Rico</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Catar</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Doha</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>QAR</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>República do Kosovo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Pristina</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>QAR</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Republic of Kosovo</t>
+          <t>Reunião</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Pristina</t>
+          <t>Saint-Denis</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3605,114 +3599,114 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Réunion</t>
+          <t>Romênia</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Saint-Denis</t>
+          <t>Bucharest</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>RON</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Federação Russa</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>RUB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Ruanda</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>RWF</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saint Barthélemy</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Kigali</t>
+          <t>Gustavia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RWF</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Saint Barthélemy</t>
+          <t>Saint Helena, Ascensão e Tristan da Cunha</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Gustavia</t>
+          <t>Jamestown</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SHP</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Saint Helena, Ascension and Tristan da Cunha</t>
+          <t>Saint Kitts e Nevis</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Jamestown</t>
+          <t>Basseterre</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SHP</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Santa Lúcia</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Basseterre</t>
+          <t>Castries</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3724,29 +3718,29 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Saint Martin (parte francesa)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Castries</t>
+          <t>Marigot</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Saint Martin (French part)</t>
+          <t>São Pierre e Miquelon</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Marigot</t>
+          <t>Saint-Pierre</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3758,216 +3752,216 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Saint Pierre and Miquelon</t>
+          <t>São Vincent e Granadinas</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Saint-Pierre</t>
+          <t>Kingstown</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>XCD</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kingstown</t>
+          <t>Apia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>WST</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Apia</t>
+          <t>City of San Marino</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>São Tomé e Príncipe</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>City of San Marino</t>
+          <t>São Tomé</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>STD</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Arábia Saudita</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>São Tomé</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Belgrade</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>RSD</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>SCR</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Serra Leoa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Freetown</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SLL</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Cingapura</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Freetown</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>SGD</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sint Marthes (parte holandesa)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Philipsburg</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>ANG</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sint Maarten (Dutch part)</t>
+          <t>Eslováquia</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Philipsburg</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ANG</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Eslovênia</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3979,743 +3973,743 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ilhas Salomão</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Honiara</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SBD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Somália</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Honiara</t>
+          <t>Mogadishu</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>SOS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>África do Sul</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mogadishu</t>
+          <t>Pretoria</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>ZAR</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Geórgia do Sul e as Ilhas Sandwich South</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pretoria</t>
+          <t>King Edward Point</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>FKP</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>South Georgia and the South Sandwich Islands</t>
+          <t>Republica da Coréia)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>King Edward Point</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>FKP</t>
+          <t>KRW</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Korea (Republic of)</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>KRW</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Sri Jayawardenepura Kotte</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>LKR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Sudão</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sri Jayawardenepura Kotte</t>
+          <t>Khartoum</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>LKR</t>
+          <t>SDG</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Sudão do Sul</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Khartoum</t>
+          <t>Juba</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SSP</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Juba</t>
+          <t>Paramaribo</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>SRD</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Svalbard e Jan Mayen</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Longyearbyen</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SRD</t>
+          <t>NOK</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Svalbard and Jan Mayen</t>
+          <t>Suazilândia</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Longyearbyen</t>
+          <t>Mbabane</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>SZL</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Suécia</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mbabane</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>SEK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>CHF</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>República Árabe da Síria</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>Damascus</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CHF</t>
+          <t>SYP</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Damascus</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>SYP</t>
+          <t>TWD</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Tajiquistão</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Taipei</t>
+          <t>Dushanbe</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TWD</t>
+          <t>TJS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Tanzânia, República Unida de</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dushanbe</t>
+          <t>Dodoma</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>TZS</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Tanzania, United Republic of</t>
+          <t>Tailândia</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Dodoma</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>TZS</t>
+          <t>THB</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timoria leitura</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Dili</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dili</t>
+          <t>Lomé</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>XOF</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Tokelau</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lomé</t>
+          <t>Fakaofo</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>NZD</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Tokelau</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Fakaofo</t>
+          <t>Nuku'alofa</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>TOP</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Trinidad e Tobago</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nuku'alofa</t>
+          <t>Port of Spain</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TTD</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tunísia</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Port of Spain</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TND</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Ankara</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>TND</t>
+          <t>TRY</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Turquemenistão</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ankara</t>
+          <t>Ashgabat</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>TMT</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Ilhas Turcas e Caicos</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ashgabat</t>
+          <t>Cockburn Town</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Cockburn Town</t>
+          <t>Funafuti</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD,TVD[G]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Funafuti</t>
+          <t>Kampala</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>AUD,TVD[G]</t>
+          <t>UGX</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ucrânia</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>UGX</t>
+          <t>UAH</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Emirados Árabes Unidos</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Abu Dhabi</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>AED</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Reino Unido da Grã -Bretanha e Irlanda do Norte</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Abu Dhabi</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>AED</t>
+          <t>GBP</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Estados Unidos da América</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Washington, D.C.</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>UYU</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Uzbequistão</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Tashkent</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>UYU</t>
+          <t>UZS</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tashkent</t>
+          <t>Port Vila</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>VUV</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Venezuela (República Bolivariana de)</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Port Vila</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>VUV</t>
+          <t>VEF</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Venezuela (Bolivarian Republic of)</t>
+          <t>Vietnã</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Hanoi</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>VEF</t>
+          <t>VND</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Wallis e Futuna</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hanoi</t>
+          <t>Mata-Utu</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>XPF</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Wallis and Futuna</t>
+          <t>Saara Ocidental</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mata-Utu</t>
+          <t>El Aaiún</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>MAD,DZD</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Western Sahara</t>
+          <t>Iémen</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>El Aaiún</t>
+          <t>Sana'a</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MAD,DZD</t>
+          <t>YER</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Zâmbia</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sana'a</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>YER</t>
+          <t>ZMW</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbábue</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4724,27 +4718,7 @@
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Harare</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>ZMW</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>